--- a/data/Pass Acceptance_Wiesbaden.xlsx
+++ b/data/Pass Acceptance_Wiesbaden.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauernd\Documents\R\workspace\firstPassAcceptance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2317B1CE-E698-4050-876C-A251B330F7E1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7A8AE3-265C-4E4F-BF31-41C749D54081}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="960" windowWidth="19215" windowHeight="9600" activeTab="2" xr2:uid="{203EF309-F09C-46D6-B42C-975B3263EA61}"/>
+    <workbookView xWindow="120" yWindow="630" windowWidth="19215" windowHeight="9600" activeTab="2" xr2:uid="{203EF309-F09C-46D6-B42C-975B3263EA61}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -464,6 +464,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -507,13 +510,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -842,19 +848,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1313,7 +1319,7 @@
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="8" max="8" width="12" style="4" customWidth="1"/>
     <col min="9" max="9" width="38.5703125" customWidth="1"/>
     <col min="10" max="10" width="42.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1340,7 +1346,7 @@
       <c r="G1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>45</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1372,7 +1378,7 @@
       <c r="G2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="4">
         <v>43836</v>
       </c>
       <c r="I2" t="s">
@@ -1401,7 +1407,7 @@
       <c r="G3" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="4">
         <v>43836</v>
       </c>
       <c r="I3" t="s">
@@ -1430,7 +1436,7 @@
       <c r="G4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="4">
         <v>43840</v>
       </c>
       <c r="I4" t="s">
@@ -1459,7 +1465,7 @@
       <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="4">
         <v>43840</v>
       </c>
       <c r="I5" t="s">
@@ -1488,7 +1494,7 @@
       <c r="G6" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="4">
         <v>43840</v>
       </c>
       <c r="I6" t="s">
@@ -1517,7 +1523,7 @@
       <c r="G7" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="4">
         <v>43844</v>
       </c>
       <c r="I7" t="s">
@@ -1546,7 +1552,7 @@
       <c r="G8" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="4">
         <v>43845</v>
       </c>
       <c r="I8" t="s">
@@ -1575,7 +1581,7 @@
       <c r="G9" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="4">
         <v>43846</v>
       </c>
       <c r="I9" t="s">
@@ -1604,7 +1610,7 @@
       <c r="G10" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="4">
         <v>43847</v>
       </c>
       <c r="I10" t="s">
@@ -1636,7 +1642,7 @@
       <c r="G11" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="4">
         <v>43847</v>
       </c>
       <c r="I11" t="s">
@@ -1668,7 +1674,7 @@
       <c r="G12" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="4">
         <v>43847</v>
       </c>
       <c r="I12" t="s">
@@ -1700,7 +1706,7 @@
       <c r="G13" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="4">
         <v>43847</v>
       </c>
       <c r="I13" t="s">
@@ -1729,7 +1735,7 @@
       <c r="G14" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="4">
         <v>43847</v>
       </c>
       <c r="I14" t="s">
@@ -1758,7 +1764,7 @@
       <c r="G15" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="4">
         <v>43847</v>
       </c>
       <c r="I15" t="s">
@@ -1787,7 +1793,7 @@
       <c r="G16" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="4">
         <v>43850</v>
       </c>
       <c r="I16" t="s">
@@ -1819,7 +1825,7 @@
       <c r="G17" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="4">
         <v>43850</v>
       </c>
       <c r="I17" t="s">
@@ -1851,7 +1857,7 @@
       <c r="G18" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="4">
         <v>43850</v>
       </c>
       <c r="I18" t="s">
@@ -1880,7 +1886,7 @@
       <c r="G19" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="4">
         <v>43850</v>
       </c>
       <c r="I19" t="s">
@@ -1909,7 +1915,7 @@
       <c r="G20" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="4">
         <v>43851</v>
       </c>
     </row>
@@ -1935,7 +1941,7 @@
       <c r="G21" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="4">
         <v>43851</v>
       </c>
     </row>
@@ -1961,7 +1967,7 @@
       <c r="G22" t="s">
         <v>31</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="4">
         <v>43851</v>
       </c>
     </row>
@@ -1987,7 +1993,7 @@
       <c r="G23" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="4">
         <v>43851</v>
       </c>
     </row>
@@ -2013,7 +2019,7 @@
       <c r="G24" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="4">
         <v>43851</v>
       </c>
     </row>
@@ -2039,7 +2045,7 @@
       <c r="G25" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="4">
         <v>43851</v>
       </c>
     </row>
@@ -2065,7 +2071,7 @@
       <c r="G26" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="4">
         <v>43851</v>
       </c>
     </row>
@@ -2091,7 +2097,7 @@
       <c r="G27" t="s">
         <v>31</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="4">
         <v>43852</v>
       </c>
     </row>
@@ -2117,7 +2123,7 @@
       <c r="G28" t="s">
         <v>30</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="4">
         <v>43852</v>
       </c>
       <c r="I28" t="s">
@@ -2149,7 +2155,7 @@
       <c r="G29" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="4">
         <v>43852</v>
       </c>
     </row>
@@ -2175,7 +2181,7 @@
       <c r="G30" t="s">
         <v>30</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="4">
         <v>43852</v>
       </c>
       <c r="I30" t="s">
@@ -2207,7 +2213,7 @@
       <c r="G31" t="s">
         <v>29</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="4">
         <v>43852</v>
       </c>
     </row>
@@ -2233,7 +2239,7 @@
       <c r="G32" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="4">
         <v>43852</v>
       </c>
     </row>
@@ -2259,7 +2265,7 @@
       <c r="G33" t="s">
         <v>29</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="4">
         <v>43852</v>
       </c>
     </row>
@@ -2285,7 +2291,7 @@
       <c r="G34" t="s">
         <v>29</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="4">
         <v>43852</v>
       </c>
     </row>
@@ -2311,7 +2317,7 @@
       <c r="G35" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="4">
         <v>43853</v>
       </c>
       <c r="I35" t="s">
@@ -2343,7 +2349,7 @@
       <c r="G36" t="s">
         <v>29</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="4">
         <v>43853</v>
       </c>
     </row>
@@ -2369,7 +2375,7 @@
       <c r="G37" t="s">
         <v>31</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="4">
         <v>43853</v>
       </c>
     </row>
@@ -2395,7 +2401,7 @@
       <c r="G38" t="s">
         <v>31</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="4">
         <v>43853</v>
       </c>
     </row>
@@ -2421,7 +2427,7 @@
       <c r="G39" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="4">
         <v>43853</v>
       </c>
     </row>
@@ -2447,7 +2453,7 @@
       <c r="G40" t="s">
         <v>31</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="4">
         <v>43857</v>
       </c>
     </row>
@@ -2473,7 +2479,7 @@
       <c r="G41" t="s">
         <v>31</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="4">
         <v>43857</v>
       </c>
     </row>
@@ -2499,7 +2505,7 @@
       <c r="G42" t="s">
         <v>31</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="4">
         <v>43857</v>
       </c>
     </row>
@@ -2525,7 +2531,7 @@
       <c r="G43" t="s">
         <v>30</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="4">
         <v>43857</v>
       </c>
       <c r="I43" t="s">
@@ -2554,7 +2560,7 @@
       <c r="G44" t="s">
         <v>30</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="4">
         <v>43857</v>
       </c>
       <c r="I44" t="s">
@@ -2583,7 +2589,7 @@
       <c r="G45" t="s">
         <v>30</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="4">
         <v>43859</v>
       </c>
       <c r="I45" t="s">
@@ -2615,7 +2621,7 @@
       <c r="G46" t="s">
         <v>30</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="4">
         <v>43859</v>
       </c>
       <c r="I46" t="s">
@@ -2647,7 +2653,7 @@
       <c r="G47" t="s">
         <v>29</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="4">
         <v>43859</v>
       </c>
       <c r="J47" t="s">
@@ -2676,7 +2682,7 @@
       <c r="G48" t="s">
         <v>31</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48" s="4">
         <v>43860</v>
       </c>
     </row>
@@ -2702,7 +2708,7 @@
       <c r="G49" t="s">
         <v>30</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49" s="4">
         <v>43860</v>
       </c>
       <c r="I49" t="s">
@@ -2734,7 +2740,7 @@
       <c r="G50" t="s">
         <v>30</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50" s="4">
         <v>43860</v>
       </c>
       <c r="I50" t="s">
@@ -2766,7 +2772,7 @@
       <c r="G51" t="s">
         <v>29</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51" s="4">
         <v>43860</v>
       </c>
     </row>
@@ -2792,7 +2798,7 @@
       <c r="G52" t="s">
         <v>30</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52" s="4">
         <v>43860</v>
       </c>
       <c r="I52" t="s">
@@ -2824,7 +2830,7 @@
       <c r="G53" t="s">
         <v>30</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H53" s="4">
         <v>43861</v>
       </c>
       <c r="I53" t="s">
@@ -2856,7 +2862,7 @@
       <c r="G54" t="s">
         <v>29</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H54" s="4">
         <v>43861</v>
       </c>
     </row>
@@ -2882,7 +2888,7 @@
       <c r="G55" t="s">
         <v>30</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H55" s="4">
         <v>43861</v>
       </c>
       <c r="I55" t="s">
@@ -2914,7 +2920,7 @@
       <c r="G56" t="s">
         <v>29</v>
       </c>
-      <c r="H56" s="2">
+      <c r="H56" s="4">
         <v>43861</v>
       </c>
     </row>
@@ -2940,7 +2946,7 @@
       <c r="G57" t="s">
         <v>30</v>
       </c>
-      <c r="H57" s="2">
+      <c r="H57" s="4">
         <v>43861</v>
       </c>
       <c r="I57" t="s">
@@ -2972,7 +2978,7 @@
       <c r="G58" t="s">
         <v>30</v>
       </c>
-      <c r="H58" s="2">
+      <c r="H58" s="4">
         <v>43861</v>
       </c>
       <c r="I58" t="s">
@@ -3004,7 +3010,7 @@
       <c r="G59" t="s">
         <v>29</v>
       </c>
-      <c r="H59" s="2">
+      <c r="H59" s="4">
         <v>43861</v>
       </c>
     </row>
@@ -3030,7 +3036,7 @@
       <c r="G60" t="s">
         <v>31</v>
       </c>
-      <c r="H60" s="2">
+      <c r="H60" s="4">
         <v>43861</v>
       </c>
     </row>
@@ -3056,7 +3062,7 @@
       <c r="G61" t="s">
         <v>29</v>
       </c>
-      <c r="H61" s="2">
+      <c r="H61" s="4">
         <v>43861</v>
       </c>
     </row>
@@ -3082,7 +3088,7 @@
       <c r="G62" t="s">
         <v>30</v>
       </c>
-      <c r="H62" s="2">
+      <c r="H62" s="4">
         <v>43864</v>
       </c>
       <c r="I62" t="s">
@@ -3114,7 +3120,7 @@
       <c r="G63" t="s">
         <v>31</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H63" s="4">
         <v>43864</v>
       </c>
     </row>
@@ -3140,7 +3146,7 @@
       <c r="G64" t="s">
         <v>31</v>
       </c>
-      <c r="H64" s="2">
+      <c r="H64" s="4">
         <v>43864</v>
       </c>
     </row>
@@ -3166,7 +3172,7 @@
       <c r="G65" t="s">
         <v>31</v>
       </c>
-      <c r="H65" s="2">
+      <c r="H65" s="4">
         <v>43864</v>
       </c>
     </row>
